--- a/biology/Zoologie/Chrysogorgia_elegans/Chrysogorgia_elegans.xlsx
+++ b/biology/Zoologie/Chrysogorgia_elegans/Chrysogorgia_elegans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chrysogorgia elegans est une espèce de coraux alcyonaires de la famille des Chrysogorgiidae et de l'ordre des Alcyonacea. Il s'agit d'une espèce abyssale que l'on trouve dans le Golfe du Mexique, la mer Méditerranée et le Nord  de l'océan Atlantique.
 </t>
